--- a/WildfireHazardPlugin/Excel_input_data/CORINE_to_FuelType.xlsx
+++ b/WildfireHazardPlugin/Excel_input_data/CORINE_to_FuelType.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giorg\AppData\Roaming\QGIS\QGIS3\profiles\default\python\plugins\RFForestFiresRiskPlugin\Excel_input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giorg\CIMA Dropbox\Giorgio Meschi\CIMA\progetti\Model\qgis_plugin\Operational\gitRepo\FFRiskPlugin\WildfireHazardPlugin\Excel_input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57CAC26-52BC-4CA5-9509-79EF49AFF844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062D7715-4698-45FF-94CF-5F2B05885BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="2568" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24405" yWindow="1785" windowWidth="18030" windowHeight="12330" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mapping" sheetId="1" r:id="rId1"/>
@@ -59,15 +59,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>veg</t>
   </si>
   <si>
     <t>aggr</t>
-  </si>
-  <si>
-    <t>susc - I</t>
   </si>
   <si>
     <t>&lt;25</t>
@@ -113,9 +110,6 @@
     <t>Hazard classes</t>
   </si>
   <si>
-    <t>Intensity classes</t>
-  </si>
-  <si>
     <t>LOW</t>
   </si>
   <si>
@@ -134,19 +128,31 @@
     <t>CLASSES</t>
   </si>
   <si>
-    <t>very high - canopy fires</t>
-  </si>
-  <si>
-    <t>High - surface fires (shrubs)</t>
-  </si>
-  <si>
-    <t>medium - surface fires</t>
-  </si>
-  <si>
-    <t>Low - surface fires</t>
-  </si>
-  <si>
     <t xml:space="preserve">contingency matrix </t>
+  </si>
+  <si>
+    <t>fule type classes</t>
+  </si>
+  <si>
+    <t>grassland</t>
+  </si>
+  <si>
+    <t>low Fflamamble forest</t>
+  </si>
+  <si>
+    <t>high Fflamamble forest</t>
+  </si>
+  <si>
+    <t>shurbland</t>
+  </si>
+  <si>
+    <t>susc - fuel type</t>
+  </si>
+  <si>
+    <t>is_not_burnable</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -769,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -846,6 +852,99 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -854,108 +953,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1339,139 +1336,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>111</v>
       </c>
-      <c r="B2" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="29">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>112</v>
       </c>
-      <c r="B3" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="29">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>121</v>
       </c>
-      <c r="B4" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="29">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>122</v>
       </c>
-      <c r="B5" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="29">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>123</v>
       </c>
-      <c r="B6" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="29">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>124</v>
       </c>
-      <c r="B7" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="29">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>131</v>
       </c>
-      <c r="B8" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="29">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>132</v>
       </c>
-      <c r="B9" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="29">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>133</v>
       </c>
-      <c r="B10" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="29">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>141</v>
       </c>
-      <c r="B11" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="29">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>142</v>
       </c>
-      <c r="B12" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="29">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>211</v>
       </c>
-      <c r="B13" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>212</v>
       </c>
-      <c r="B14" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>213</v>
       </c>
-      <c r="B15" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>221</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="29">
         <v>1</v>
       </c>
     </row>
@@ -1479,7 +1512,7 @@
       <c r="A17">
         <v>222</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="29">
         <v>2</v>
       </c>
     </row>
@@ -1487,7 +1520,7 @@
       <c r="A18">
         <v>223</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="29">
         <v>2</v>
       </c>
     </row>
@@ -1495,7 +1528,7 @@
       <c r="A19">
         <v>224</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="29">
         <v>1</v>
       </c>
     </row>
@@ -1503,7 +1536,7 @@
       <c r="A20">
         <v>231</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="29">
         <v>1</v>
       </c>
     </row>
@@ -1511,7 +1544,7 @@
       <c r="A21">
         <v>241</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="29">
         <v>1</v>
       </c>
     </row>
@@ -1519,7 +1552,7 @@
       <c r="A22">
         <v>242</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="29">
         <v>1</v>
       </c>
     </row>
@@ -1527,7 +1560,7 @@
       <c r="A23">
         <v>243</v>
       </c>
-      <c r="B23" s="34">
+      <c r="B23" s="29">
         <v>1</v>
       </c>
     </row>
@@ -1535,7 +1568,7 @@
       <c r="A24">
         <v>244</v>
       </c>
-      <c r="B24" s="34">
+      <c r="B24" s="29">
         <v>2</v>
       </c>
     </row>
@@ -1543,7 +1576,7 @@
       <c r="A25">
         <v>311</v>
       </c>
-      <c r="B25" s="34">
+      <c r="B25" s="29">
         <v>2</v>
       </c>
     </row>
@@ -1551,7 +1584,7 @@
       <c r="A26">
         <v>312</v>
       </c>
-      <c r="B26" s="34">
+      <c r="B26" s="29">
         <v>4</v>
       </c>
     </row>
@@ -1559,7 +1592,7 @@
       <c r="A27">
         <v>313</v>
       </c>
-      <c r="B27" s="34">
+      <c r="B27" s="29">
         <v>4</v>
       </c>
     </row>
@@ -1567,7 +1600,7 @@
       <c r="A28">
         <v>321</v>
       </c>
-      <c r="B28" s="34">
+      <c r="B28" s="29">
         <v>1</v>
       </c>
     </row>
@@ -1575,7 +1608,7 @@
       <c r="A29">
         <v>322</v>
       </c>
-      <c r="B29" s="34">
+      <c r="B29" s="29">
         <v>3</v>
       </c>
     </row>
@@ -1583,7 +1616,7 @@
       <c r="A30">
         <v>323</v>
       </c>
-      <c r="B30" s="34">
+      <c r="B30" s="29">
         <v>3</v>
       </c>
     </row>
@@ -1591,7 +1624,7 @@
       <c r="A31">
         <v>324</v>
       </c>
-      <c r="B31" s="34">
+      <c r="B31" s="29">
         <v>3</v>
       </c>
     </row>
@@ -1599,128 +1632,161 @@
       <c r="A32">
         <v>331</v>
       </c>
-      <c r="B32" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>332</v>
       </c>
-      <c r="B33" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>333</v>
       </c>
-      <c r="B34" s="34">
+      <c r="B34" s="29">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>334</v>
       </c>
-      <c r="B35" s="34">
+      <c r="B35" s="29">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>335</v>
       </c>
-      <c r="B36" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>411</v>
       </c>
-      <c r="B37" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="29">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>412</v>
       </c>
-      <c r="B38" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="29">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>421</v>
       </c>
-      <c r="B39" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="29">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>422</v>
       </c>
-      <c r="B40" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="29">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>423</v>
       </c>
-      <c r="B41" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="29">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>511</v>
       </c>
-      <c r="B42" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="29">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>512</v>
       </c>
-      <c r="B43" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="29">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>521</v>
       </c>
-      <c r="B44" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="29">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>522</v>
       </c>
-      <c r="B45" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="29">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>523</v>
       </c>
-      <c r="B46" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="29">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>999</v>
       </c>
-      <c r="B47" s="34">
-        <v>1</v>
+      <c r="B47" s="29">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1731,19 +1797,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C4:AC32"/>
+  <dimension ref="C7:AC32"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="C8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="8" max="8" width="46.140625" customWidth="1"/>
     <col min="9" max="9" width="24.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
     <col min="23" max="23" width="14.42578125" customWidth="1"/>
     <col min="24" max="24" width="12.7109375" customWidth="1"/>
     <col min="25" max="25" width="10.7109375" customWidth="1"/>
@@ -1752,184 +1819,87 @@
     <col min="29" max="29" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="8:23" x14ac:dyDescent="0.25">
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-    </row>
-    <row r="5" spans="8:23" x14ac:dyDescent="0.25">
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-    </row>
-    <row r="6" spans="8:23" x14ac:dyDescent="0.25">
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-    </row>
-    <row r="7" spans="8:23" x14ac:dyDescent="0.25">
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-    </row>
-    <row r="8" spans="8:23" x14ac:dyDescent="0.25">
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-    </row>
-    <row r="9" spans="8:23" x14ac:dyDescent="0.25">
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-    </row>
-    <row r="10" spans="8:23" x14ac:dyDescent="0.25">
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-    </row>
-    <row r="11" spans="8:23" x14ac:dyDescent="0.25">
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-    </row>
-    <row r="12" spans="8:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-    </row>
-    <row r="13" spans="8:23" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
+    <row r="7" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I7" s="26"/>
+    </row>
+    <row r="12" spans="9:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="9:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W13" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="9:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W14" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="8:23" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="W14" s="13" t="s">
+    <row r="15" spans="9:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W15" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="8:23" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="W15" s="14" t="s">
+    <row r="16" spans="9:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W16" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="8:23" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="W16" s="15" t="s">
+    <row r="17" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="W17" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="3:29" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33" t="s">
+    <row r="18" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="W18" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="49"/>
+      <c r="J19" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="31"/>
-      <c r="W17" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="3:29" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="31"/>
-      <c r="W18" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="3:29" ht="40.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="58"/>
-      <c r="J19" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="K19" s="4">
         <v>1</v>
@@ -1943,31 +1913,30 @@
       <c r="N19" s="4">
         <v>4</v>
       </c>
-      <c r="O19" s="56"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="31"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
       <c r="W19" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="3:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="46">
+      <c r="C20" s="37">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="62">
-        <v>1</v>
-      </c>
-      <c r="H20" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="59"/>
+        <v>13</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="53">
+        <v>1</v>
+      </c>
+      <c r="H20" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="50"/>
       <c r="J20" s="5">
         <v>1</v>
       </c>
@@ -1983,28 +1952,27 @@
       <c r="N20" s="9">
         <v>4</v>
       </c>
-      <c r="O20" s="56"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="31"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
     </row>
     <row r="21" spans="3:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="46">
+      <c r="C21" s="37">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="62">
+        <v>14</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="53">
         <v>2</v>
       </c>
-      <c r="H21" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="59"/>
+      <c r="H21" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="50"/>
       <c r="J21" s="5">
         <v>2</v>
       </c>
@@ -2020,36 +1988,35 @@
       <c r="N21" s="10">
         <v>5</v>
       </c>
-      <c r="O21" s="56"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="31"/>
-      <c r="X21" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="28"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="X21" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="59"/>
     </row>
     <row r="22" spans="3:29" ht="25.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="48">
+      <c r="C22" s="39">
         <v>3</v>
       </c>
-      <c r="D22" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="62">
+      <c r="D22" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="53">
         <v>3</v>
       </c>
-      <c r="H22" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="59"/>
+      <c r="H22" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="50"/>
       <c r="J22" s="5">
         <v>3</v>
       </c>
@@ -2065,10 +2032,9 @@
       <c r="N22" s="11">
         <v>6</v>
       </c>
-      <c r="O22" s="56"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="31"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
       <c r="W22" s="19" t="str" cm="1">
         <f t="array" ref="W22:AC22">TRANSPOSE(W13:W19)</f>
         <v> H class</v>
@@ -2093,164 +2059,162 @@
       </c>
     </row>
     <row r="23" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="48">
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="39">
         <v>4</v>
       </c>
-      <c r="H23" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="51"/>
+      <c r="H23" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="42"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="31"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
     </row>
     <row r="24" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="31"/>
-    </row>
-    <row r="25" spans="3:29" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-    </row>
-    <row r="26" spans="3:29" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="37"/>
-    </row>
-    <row r="27" spans="3:29" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="37"/>
-    </row>
-    <row r="28" spans="3:29" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="37"/>
-    </row>
-    <row r="29" spans="3:29" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="37"/>
-    </row>
-    <row r="30" spans="3:29" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="37"/>
-    </row>
-    <row r="31" spans="3:29" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-    </row>
-    <row r="32" spans="3:29" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J32" s="39"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="37"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="31"/>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="31"/>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="31"/>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="31"/>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="31"/>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="J32" s="29"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
